--- a/data/input/absenteeism_data_15.xlsx
+++ b/data/input/absenteeism_data_15.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2263</v>
+        <v>47261</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Murilo Moura</t>
+          <t>Enzo da Rocha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,172 +494,172 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>6833.85</v>
+        <v>4064.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>63681</v>
+        <v>16872</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dra. Marina Lima</t>
+          <t>Dra. Sabrina Aragão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45083</v>
       </c>
       <c r="G3" t="n">
-        <v>6758.44</v>
+        <v>2568.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>34022</v>
+        <v>23739</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sofia Farias</t>
+          <t>Sra. Maria Cecília Teixeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45081</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>11432.75</v>
+        <v>10893.97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18416</v>
+        <v>27746</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sra. Brenda Silva</t>
+          <t>Sr. Benjamin Moreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45083</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>2541.84</v>
+        <v>10630.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2893</v>
+        <v>9413</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Igor Alves</t>
+          <t>Thiago Lima</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45102</v>
+        <v>45083</v>
       </c>
       <c r="G6" t="n">
-        <v>11667.17</v>
+        <v>7385.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>87791</v>
+        <v>68332</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dra. Maysa Moraes</t>
+          <t>Enzo Cavalcanti</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45092</v>
+        <v>45105</v>
       </c>
       <c r="G7" t="n">
-        <v>6857.85</v>
+        <v>11786.89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>44666</v>
+        <v>88488</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pedro Lucas Peixoto</t>
+          <t>Rafaela Correia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>4622.27</v>
+        <v>4658.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7103</v>
+        <v>11680</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lorenzo Nascimento</t>
+          <t>Lucas Gabriel Monteiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45088</v>
+        <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>9709.27</v>
+        <v>4578.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>87094</v>
+        <v>92305</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sofia da Mota</t>
+          <t>Ana Lívia Caldeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>12064.99</v>
+        <v>2682.24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>53119</v>
+        <v>10970</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Srta. Júlia Gonçalves</t>
+          <t>Luiz Fernando Nascimento</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>5544.28</v>
+        <v>3050.89</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_15.xlsx
+++ b/data/input/absenteeism_data_15.xlsx
@@ -476,127 +476,127 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>47261</v>
+        <v>80992</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enzo da Rocha</t>
+          <t>Bruna Campos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45086</v>
+        <v>45105</v>
       </c>
       <c r="G2" t="n">
-        <v>4064.44</v>
+        <v>3995.74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16872</v>
+        <v>79258</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dra. Sabrina Aragão</t>
+          <t>Eloah Teixeira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45083</v>
+        <v>45105</v>
       </c>
       <c r="G3" t="n">
-        <v>2568.62</v>
+        <v>9178.700000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23739</v>
+        <v>54405</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sra. Maria Cecília Teixeira</t>
+          <t>Catarina da Conceição</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>10893.97</v>
+        <v>2859.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27746</v>
+        <v>40030</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Benjamin Moreira</t>
+          <t>Calebe Cardoso</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45079</v>
       </c>
       <c r="G5" t="n">
-        <v>10630.09</v>
+        <v>7158.94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9413</v>
+        <v>92234</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Thiago Lima</t>
+          <t>Alexandre Ramos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,31 +606,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45083</v>
+        <v>45099</v>
       </c>
       <c r="G6" t="n">
-        <v>7385.03</v>
+        <v>12456.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68332</v>
+        <v>63641</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Enzo Cavalcanti</t>
+          <t>Srta. Sarah Peixoto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45105</v>
+        <v>45092</v>
       </c>
       <c r="G7" t="n">
-        <v>11786.89</v>
+        <v>5993.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>88488</v>
+        <v>93663</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rafaela Correia</t>
+          <t>Sra. Sophie Freitas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,56 +668,56 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>4658.15</v>
+        <v>11641.71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11680</v>
+        <v>84792</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Monteiro</t>
+          <t>Lucca Silveira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>4578.2</v>
+        <v>11756.55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>92305</v>
+        <v>76748</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Lívia Caldeira</t>
+          <t>Isadora da Cruz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45082</v>
+        <v>45104</v>
       </c>
       <c r="G10" t="n">
-        <v>2682.24</v>
+        <v>12225.63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10970</v>
+        <v>74917</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luiz Fernando Nascimento</t>
+          <t>Laís Castro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>3050.89</v>
+        <v>3995.38</v>
       </c>
     </row>
   </sheetData>
